--- a/FinalMail.Xlsx
+++ b/FinalMail.Xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Id</t>
   </si>
@@ -36,24 +36,6 @@
   </si>
   <si>
     <t>Attachment</t>
-  </si>
-  <si>
-    <t>CherryChethan22@gmail.com</t>
-  </si>
-  <si>
-    <t>C:\Users\Chetan P\Documents\UiPath\SendTheInvoiceToTenent\Attachments\Support Data Table - Copy.xlsx</t>
-  </si>
-  <si>
-    <t>Chethan_p@Stskproperties.com</t>
-  </si>
-  <si>
-    <t>C:\Users\Chetan P\Documents\UiPath\SendTheInvoiceToTenent\Attachments\Support Data Table.xlsx</t>
-  </si>
-  <si>
-    <t>vidya_kapse@stskproperties.com</t>
-  </si>
-  <si>
-    <t>C:\Users\Chetan P\Documents\UiPath\SendTheInvoiceToTenent\Attachments\Vidya.png</t>
   </si>
 </sst>
 </file>
@@ -376,7 +358,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -401,46 +383,13 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1">
-        <v>44111</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2">
-        <v>44081</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2">
-        <v>44111</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>

--- a/FinalMail.Xlsx
+++ b/FinalMail.Xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chetan P\Documents\UiPath\SendTheInvoiceToTenent\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9316FDB4-CC32-4757-9DD6-429E46F6C6F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="8655"/>
+    <workbookView xWindow="1425" yWindow="1425" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Id</t>
   </si>
@@ -36,12 +37,18 @@
   </si>
   <si>
     <t>Attachment</t>
+  </si>
+  <si>
+    <t>Chethan_p@Stskproperties.com</t>
+  </si>
+  <si>
+    <t>C:\Users\Chetan P\Documents\UiPath\SendTheInvoiceToTenent\Attachments\Support Data Table.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -354,17 +361,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="101" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -383,7 +390,18 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C2" s="1"/>
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>44146</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C3" s="2"/>
